--- a/biology/Zoologie/Haddadus_binotatus/Haddadus_binotatus.xlsx
+++ b/biology/Zoologie/Haddadus_binotatus/Haddadus_binotatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haddadus binotatus est une espèce d'amphibiens de la famille des Craugastoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haddadus binotatus est une espèce d'amphibiens de la famille des Craugastoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1]. Elle se rencontre dans les États de Bahia, du Minas Gerais, de l'Espírito Santo, de Rio de Janeiro, de São Paulo, du Mato Grosso do Sul, du Paraná et de Santa Catarina et du Rio Grande do Sul.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États de Bahia, du Minas Gerais, de l'Espírito Santo, de Rio de Janeiro, de São Paulo, du Mato Grosso do Sul, du Paraná et de Santa Catarina et du Rio Grande do Sul.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Spix, 1824 : Animalia nova sive species novae testudinum et ranarum, quas in itinere per Brasiliam annis 1817-1820. (texte intégral)</t>
         </is>
